--- a/regulations_option3.xlsx
+++ b/regulations_option3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>dtrip_2019</t>
   </si>
@@ -97,6 +97,9 @@
   <si>
     <t>VA</t>
   </si>
+  <si>
+    <t>pd_multiplier</t>
+  </si>
 </sst>
 </file>
 
@@ -131,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +472,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6607.00244140625</v>
       </c>
@@ -515,8 +522,11 @@
       <c r="O2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>22422.83203125</v>
       </c>
@@ -562,8 +572,11 @@
       <c r="O3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>29147.505859375</v>
       </c>
@@ -609,8 +622,11 @@
       <c r="O4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30697.919921875</v>
       </c>
@@ -656,8 +672,11 @@
       <c r="O5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>81900.6640625</v>
       </c>
@@ -703,8 +722,11 @@
       <c r="O6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>65571.8671875</v>
       </c>
@@ -750,8 +772,11 @@
       <c r="O7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>90327.6875</v>
       </c>
@@ -797,8 +822,11 @@
       <c r="O8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>36451.125</v>
       </c>
@@ -844,8 +872,11 @@
       <c r="O9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>22120.91796875</v>
       </c>
@@ -891,8 +922,11 @@
       <c r="O10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>26864.275390625</v>
       </c>
@@ -938,8 +972,11 @@
       <c r="O11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>454.10357666015625</v>
       </c>
@@ -985,8 +1022,11 @@
       <c r="O12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>504.75216674804688</v>
       </c>
@@ -1032,8 +1072,11 @@
       <c r="O13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>202.75529479980469</v>
       </c>
@@ -1079,8 +1122,11 @@
       <c r="O14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>262.44146728515625</v>
       </c>
@@ -1126,8 +1172,11 @@
       <c r="O15" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2405.6298828125</v>
       </c>
@@ -1173,8 +1222,11 @@
       <c r="O16" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1502.8067626953125</v>
       </c>
@@ -1220,8 +1272,11 @@
       <c r="O17" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>19901.15625</v>
       </c>
@@ -1267,8 +1322,11 @@
       <c r="O18" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>41981.98046875</v>
       </c>
@@ -1314,8 +1372,11 @@
       <c r="O19" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44205.15625</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="O20" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>78745.78125</v>
       </c>
@@ -1408,8 +1472,11 @@
       <c r="O21" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>38059.98828125</v>
       </c>
@@ -1455,8 +1522,11 @@
       <c r="O22" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>79351.3203125</v>
       </c>
@@ -1502,8 +1572,11 @@
       <c r="O23" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45067.83984375</v>
       </c>
@@ -1549,8 +1622,11 @@
       <c r="O24" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>14295.390625</v>
       </c>
@@ -1596,8 +1672,11 @@
       <c r="O25" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27738.416015625</v>
       </c>
@@ -1643,8 +1722,11 @@
       <c r="O26" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2820.07421875</v>
       </c>
@@ -1690,8 +1772,11 @@
       <c r="O27" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3590.915771484375</v>
       </c>
@@ -1737,8 +1822,11 @@
       <c r="O28" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1156.10693359375</v>
       </c>
@@ -1784,8 +1872,11 @@
       <c r="O29" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>9133.380859375</v>
       </c>
@@ -1831,8 +1922,11 @@
       <c r="O30" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>7570.98779296875</v>
       </c>
@@ -1878,8 +1972,11 @@
       <c r="O31" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>15502.478515625</v>
       </c>
@@ -1925,8 +2022,11 @@
       <c r="O32" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>9669.6796875</v>
       </c>
@@ -1972,8 +2072,11 @@
       <c r="O33" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>26786.919921875</v>
       </c>
@@ -2019,8 +2122,11 @@
       <c r="O34" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>15438.771484375</v>
       </c>
@@ -2066,8 +2172,11 @@
       <c r="O35" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7027.72412109375</v>
       </c>
@@ -2113,8 +2222,11 @@
       <c r="O36" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>5006.36474609375</v>
       </c>
@@ -2160,8 +2272,11 @@
       <c r="O37" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>5887.40185546875</v>
       </c>
@@ -2207,8 +2322,11 @@
       <c r="O38" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1725.8172607421875</v>
       </c>
@@ -2254,8 +2372,11 @@
       <c r="O39" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>501.32125854492188</v>
       </c>
@@ -2301,8 +2422,11 @@
       <c r="O40" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>13238.212890625</v>
       </c>
@@ -2348,8 +2472,11 @@
       <c r="O41" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>6787.9892578125</v>
       </c>
@@ -2395,8 +2522,11 @@
       <c r="O42" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1508.0394287109375</v>
       </c>
@@ -2442,8 +2572,11 @@
       <c r="O43" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>25212.97265625</v>
       </c>
@@ -2489,8 +2622,11 @@
       <c r="O44" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>6444.03564453125</v>
       </c>
@@ -2536,8 +2672,11 @@
       <c r="O45" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>55703.9921875</v>
       </c>
@@ -2583,8 +2722,11 @@
       <c r="O46" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>201456.296875</v>
       </c>
@@ -2630,8 +2772,11 @@
       <c r="O47" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>15485.5439453125</v>
       </c>
@@ -2677,8 +2822,11 @@
       <c r="O48" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>14404.4404296875</v>
       </c>
@@ -2724,8 +2872,11 @@
       <c r="O49" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46955.76953125</v>
       </c>
@@ -2771,8 +2922,11 @@
       <c r="O50" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>24420.0234375</v>
       </c>
@@ -2818,8 +2972,11 @@
       <c r="O51" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>70371.59375</v>
       </c>
@@ -2865,8 +3022,11 @@
       <c r="O52" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>7574.09228515625</v>
       </c>
@@ -2912,8 +3072,11 @@
       <c r="O53" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45038.4609375</v>
       </c>
@@ -2959,8 +3122,11 @@
       <c r="O54" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10072.892578125</v>
       </c>
@@ -3006,8 +3172,11 @@
       <c r="O55" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1068.514404296875</v>
       </c>
@@ -3053,8 +3222,11 @@
       <c r="O56" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>405.9166259765625</v>
       </c>
@@ -3100,8 +3272,11 @@
       <c r="O57" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>5616.04638671875</v>
       </c>
@@ -3147,8 +3322,11 @@
       <c r="O58" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3150.054443359375</v>
       </c>
@@ -3194,8 +3372,11 @@
       <c r="O59" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1817.36181640625</v>
       </c>
@@ -3241,8 +3422,11 @@
       <c r="O60" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>6395.794921875</v>
       </c>
@@ -3288,8 +3472,11 @@
       <c r="O61" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>4006.27294921875</v>
       </c>
@@ -3335,8 +3522,11 @@
       <c r="O62" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1686.953857421875</v>
       </c>
@@ -3382,8 +3572,11 @@
       <c r="O63" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>589.26971435546875</v>
       </c>
@@ -3429,8 +3622,11 @@
       <c r="O64" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1710.2791748046875</v>
       </c>
@@ -3476,8 +3672,11 @@
       <c r="O65" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>199.18280029296875</v>
       </c>
@@ -3523,8 +3722,11 @@
       <c r="O66" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2462.5498046875</v>
       </c>
@@ -3570,8 +3772,11 @@
       <c r="O67" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3703.955810546875</v>
       </c>
@@ -3617,8 +3822,11 @@
       <c r="O68" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>169753.6875</v>
       </c>
@@ -3664,8 +3872,11 @@
       <c r="O69" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>301001.03125</v>
       </c>
@@ -3711,8 +3922,11 @@
       <c r="O70" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>485903.5</v>
       </c>
@@ -3758,8 +3972,11 @@
       <c r="O71" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>757270.8125</v>
       </c>
@@ -3805,8 +4022,11 @@
       <c r="O72" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>651328.5625</v>
       </c>
@@ -3852,8 +4072,11 @@
       <c r="O73" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>889111.5</v>
       </c>
@@ -3899,8 +4122,11 @@
       <c r="O74" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>465365.375</v>
       </c>
@@ -3946,8 +4172,11 @@
       <c r="O75" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>340624.21875</v>
       </c>
@@ -3993,8 +4222,11 @@
       <c r="O76" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>469691.4375</v>
       </c>
@@ -4040,8 +4272,11 @@
       <c r="O77" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>20457.013671875</v>
       </c>
@@ -4087,8 +4322,11 @@
       <c r="O78" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>20630.55859375</v>
       </c>
@@ -4134,8 +4372,11 @@
       <c r="O79" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1767.837646484375</v>
       </c>
@@ -4181,8 +4422,11 @@
       <c r="O80" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>123.43588256835938</v>
       </c>
@@ -4228,8 +4472,11 @@
       <c r="O81" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>11108.4375</v>
       </c>
@@ -4275,8 +4522,11 @@
       <c r="O82" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1091.0557861328125</v>
       </c>
@@ -4322,8 +4572,11 @@
       <c r="O83" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>153571.796875</v>
       </c>
@@ -4369,8 +4622,11 @@
       <c r="O84" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>152869.40625</v>
       </c>
@@ -4416,8 +4672,11 @@
       <c r="O85" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>339433.46875</v>
       </c>
@@ -4463,8 +4722,11 @@
       <c r="O86" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>245459.03125</v>
       </c>
@@ -4510,8 +4772,11 @@
       <c r="O87" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>367627.03125</v>
       </c>
@@ -4557,8 +4822,11 @@
       <c r="O88" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>470397.15625</v>
       </c>
@@ -4604,8 +4872,11 @@
       <c r="O89" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>307103.3125</v>
       </c>
@@ -4651,8 +4922,11 @@
       <c r="O90" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>327915.21875</v>
       </c>
@@ -4698,8 +4972,11 @@
       <c r="O91" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>659114.375</v>
       </c>
@@ -4745,8 +5022,11 @@
       <c r="O92" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>195931.390625</v>
       </c>
@@ -4792,8 +5072,11 @@
       <c r="O93" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>174399.6875</v>
       </c>
@@ -4839,8 +5122,11 @@
       <c r="O94" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>60248.3828125</v>
       </c>
@@ -4886,8 +5172,11 @@
       <c r="O95" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>8460.54296875</v>
       </c>
@@ -4933,8 +5222,11 @@
       <c r="O96" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1088.0289306640625</v>
       </c>
@@ -4980,8 +5272,11 @@
       <c r="O97" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>11831.8115234375</v>
       </c>
@@ -5027,8 +5322,11 @@
       <c r="O98" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>79021.171875</v>
       </c>
@@ -5074,8 +5372,11 @@
       <c r="O99" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>160974.65625</v>
       </c>
@@ -5121,8 +5422,11 @@
       <c r="O100" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>52808.5</v>
       </c>
@@ -5168,8 +5472,11 @@
       <c r="O101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>48666.23828125</v>
       </c>
@@ -5215,8 +5522,11 @@
       <c r="O102" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>50920.578125</v>
       </c>
@@ -5262,8 +5572,11 @@
       <c r="O103" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>20573.24609375</v>
       </c>
@@ -5309,8 +5622,11 @@
       <c r="O104" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>26960.962890625</v>
       </c>
@@ -5356,8 +5672,11 @@
       <c r="O105" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>3910.375732421875</v>
       </c>
@@ -5403,8 +5722,11 @@
       <c r="O106" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106.04836273193359</v>
       </c>
@@ -5450,8 +5772,11 @@
       <c r="O107" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>15661.029296875</v>
       </c>
@@ -5497,8 +5822,11 @@
       <c r="O108" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>11375.9833984375</v>
       </c>
@@ -5544,8 +5872,11 @@
       <c r="O109" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>93358.734375</v>
       </c>
@@ -5591,8 +5922,11 @@
       <c r="O110" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>20817.486328125</v>
       </c>
@@ -5638,8 +5972,11 @@
       <c r="O111" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43952.6015625</v>
       </c>
@@ -5685,8 +6022,11 @@
       <c r="O112" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>103393.859375</v>
       </c>
@@ -5732,8 +6072,11 @@
       <c r="O113" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>35337.296875</v>
       </c>
@@ -5779,8 +6122,11 @@
       <c r="O114" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>122130.9921875</v>
       </c>
@@ -5826,8 +6172,11 @@
       <c r="O115" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>81323.6953125</v>
       </c>
@@ -5873,8 +6222,11 @@
       <c r="O116" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>77850.3828125</v>
       </c>
@@ -5920,8 +6272,11 @@
       <c r="O117" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>86203.21875</v>
       </c>
@@ -5967,8 +6322,11 @@
       <c r="O118" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>60304.91796875</v>
       </c>
@@ -6014,8 +6372,11 @@
       <c r="O119" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>25283.314453125</v>
       </c>
@@ -6061,8 +6422,11 @@
       <c r="O120" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>4048.649658203125</v>
       </c>
@@ -6108,8 +6472,11 @@
       <c r="O121" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>8763.4775390625</v>
       </c>
@@ -6155,8 +6522,11 @@
       <c r="O122" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>9926.7568359375</v>
       </c>
@@ -6202,8 +6572,11 @@
       <c r="O123" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1552.373291015625</v>
       </c>
@@ -6248,6 +6621,9 @@
       </c>
       <c r="O124" s="1">
         <v>26</v>
+      </c>
+      <c r="P124" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regulations_option3.xlsx
+++ b/regulations_option3.xlsx
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -523,7 +523,7 @@
         <v>100</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -690,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -987,10 +987,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -1037,10 +1037,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -1087,10 +1087,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1140,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -1340,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -1440,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -1490,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -1540,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -1837,10 +1837,10 @@
         <v>16</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -1887,10 +1887,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -1923,7 +1923,7 @@
         <v>100</v>
       </c>
       <c r="P30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -1937,10 +1937,10 @@
         <v>17</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -1987,10 +1987,10 @@
         <v>17</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1">
         <v>100</v>
@@ -2037,10 +2037,10 @@
         <v>17</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
@@ -2087,10 +2087,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -2137,10 +2137,10 @@
         <v>17</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
@@ -2187,10 +2187,10 @@
         <v>17</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="1">
         <v>100</v>
@@ -2237,10 +2237,10 @@
         <v>17</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="1">
         <v>100</v>
@@ -2287,10 +2287,10 @@
         <v>17</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1">
         <v>100</v>
@@ -2337,10 +2337,10 @@
         <v>17</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1">
         <v>100</v>
@@ -2387,10 +2387,10 @@
         <v>17</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1">
         <v>100</v>
@@ -2490,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1">
         <v>100</v>
@@ -2540,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" s="1">
         <v>100</v>
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="1">
         <v>100</v>
@@ -2640,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="1">
         <v>100</v>
@@ -2690,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1">
         <v>100</v>
@@ -2740,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" s="1">
         <v>100</v>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" s="1">
         <v>100</v>
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1">
         <v>100</v>
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F50" s="1">
         <v>100</v>
@@ -2940,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" s="1">
         <v>100</v>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" s="1">
         <v>100</v>
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" s="1">
         <v>100</v>
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" s="1">
         <v>100</v>
@@ -3137,10 +3137,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1">
         <v>100</v>
@@ -3190,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" s="1">
         <v>100</v>
@@ -3223,7 +3223,7 @@
         <v>27</v>
       </c>
       <c r="P56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3240,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" s="1">
         <v>100</v>
@@ -3290,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1">
         <v>100</v>
@@ -3340,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" s="1">
         <v>100</v>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1">
         <v>100</v>
@@ -3440,7 +3440,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1">
         <v>100</v>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1">
         <v>100</v>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" s="1">
         <v>100</v>
@@ -3590,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1">
         <v>100</v>
@@ -3640,7 +3640,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1">
         <v>100</v>
@@ -3690,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1">
         <v>100</v>
@@ -3737,10 +3737,10 @@
         <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F67" s="1">
         <v>100</v>
@@ -3773,7 +3773,7 @@
         <v>100</v>
       </c>
       <c r="P67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -3787,10 +3787,10 @@
         <v>20</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F68" s="1">
         <v>100</v>
@@ -3840,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F69" s="1">
         <v>100</v>
@@ -3890,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -3940,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F71" s="1">
         <v>100</v>
@@ -3990,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1">
         <v>100</v>
@@ -4040,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" s="1">
         <v>100</v>
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F74" s="1">
         <v>100</v>
@@ -4140,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1">
         <v>100</v>
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" s="1">
         <v>100</v>
@@ -4237,10 +4237,10 @@
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F77" s="1">
         <v>100</v>
@@ -4287,10 +4287,10 @@
         <v>20</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F78" s="1">
         <v>100</v>
@@ -4337,10 +4337,10 @@
         <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F79" s="1">
         <v>100</v>
@@ -4537,10 +4537,10 @@
         <v>21</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E83" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F83" s="1">
         <v>100</v>
@@ -4587,10 +4587,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F84" s="1">
         <v>100</v>
@@ -4640,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F85" s="1">
         <v>100</v>
@@ -4690,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F86" s="1">
         <v>100</v>
@@ -4740,7 +4740,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F87" s="1">
         <v>100</v>
@@ -4790,7 +4790,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F88" s="1">
         <v>100</v>
@@ -4840,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" s="1">
         <v>100</v>
@@ -4890,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F90" s="1">
         <v>100</v>
@@ -4940,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F91" s="1">
         <v>100</v>
@@ -4990,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" s="1">
         <v>100</v>
@@ -5040,7 +5040,7 @@
         <v>4</v>
       </c>
       <c r="E93" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F93" s="1">
         <v>100</v>
@@ -5090,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F94" s="1">
         <v>100</v>
@@ -5137,10 +5137,10 @@
         <v>21</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E95" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F95" s="1">
         <v>100</v>
@@ -5187,10 +5187,10 @@
         <v>21</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F96" s="1">
         <v>100</v>
@@ -5237,10 +5237,10 @@
         <v>22</v>
       </c>
       <c r="D97" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E97" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F97" s="1">
         <v>100</v>
@@ -5273,7 +5273,7 @@
         <v>100</v>
       </c>
       <c r="P97" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5287,10 +5287,10 @@
         <v>22</v>
       </c>
       <c r="D98" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E98" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F98" s="1">
         <v>100</v>
@@ -5337,10 +5337,10 @@
         <v>22</v>
       </c>
       <c r="D99" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E99" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F99" s="1">
         <v>100</v>
@@ -5387,10 +5387,10 @@
         <v>22</v>
       </c>
       <c r="D100" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E100" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F100" s="1">
         <v>100</v>
@@ -5437,10 +5437,10 @@
         <v>22</v>
       </c>
       <c r="D101" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E101" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" s="1">
         <v>100</v>
@@ -5487,10 +5487,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E102" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F102" s="1">
         <v>100</v>
@@ -5537,10 +5537,10 @@
         <v>22</v>
       </c>
       <c r="D103" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E103" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F103" s="1">
         <v>100</v>
@@ -5587,10 +5587,10 @@
         <v>22</v>
       </c>
       <c r="D104" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E104" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" s="1">
         <v>100</v>
@@ -5637,10 +5637,10 @@
         <v>22</v>
       </c>
       <c r="D105" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E105" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F105" s="1">
         <v>100</v>
@@ -5687,10 +5687,10 @@
         <v>22</v>
       </c>
       <c r="D106" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E106" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" s="1">
         <v>100</v>
@@ -5737,10 +5737,10 @@
         <v>22</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E107" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F107" s="1">
         <v>100</v>
@@ -5787,10 +5787,10 @@
         <v>22</v>
       </c>
       <c r="D108" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E108" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F108" s="1">
         <v>100</v>
@@ -5840,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109" s="1">
         <v>100</v>
@@ -5890,7 +5890,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F110" s="1">
         <v>100</v>
@@ -5940,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F111" s="1">
         <v>100</v>
@@ -5990,7 +5990,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" s="1">
         <v>100</v>
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F113" s="1">
         <v>100</v>
@@ -6090,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F114" s="1">
         <v>100</v>
@@ -6140,7 +6140,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F115" s="1">
         <v>100</v>
@@ -6190,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F116" s="1">
         <v>100</v>
@@ -6240,7 +6240,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117" s="1">
         <v>100</v>
@@ -6290,7 +6290,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F118" s="1">
         <v>100</v>
@@ -6340,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F119" s="1">
         <v>100</v>
@@ -6390,7 +6390,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F120" s="1">
         <v>100</v>
@@ -6440,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F121" s="1">
         <v>100</v>
@@ -6490,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F122" s="1">
         <v>100</v>
@@ -6537,10 +6537,10 @@
         <v>23</v>
       </c>
       <c r="D123" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F123" s="1">
         <v>100</v>
@@ -6587,10 +6587,10 @@
         <v>23</v>
       </c>
       <c r="D124" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F124" s="1">
         <v>100</v>
